--- a/1 1 Rear Aerodynamic Devices/RearEndplate/generic_endplate_save.xlsx
+++ b/1 1 Rear Aerodynamic Devices/RearEndplate/generic_endplate_save.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="-40" windowWidth="9580" windowHeight="6680"/>
+    <workbookView xWindow="50" yWindow="-40" windowWidth="8910" windowHeight="6680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="100">
   <si>
     <t>Design Table for: GenericEndplate</t>
   </si>
@@ -166,15 +166,6 @@
     <t>yCoordinate</t>
   </si>
   <si>
-    <t>BleedingEdge</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Sundeep</t>
-  </si>
-  <si>
     <t>$STATE@ConcaveEllipseBottomLeft</t>
   </si>
   <si>
@@ -244,70 +235,94 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$STATE@DiagonalStraightBottomLeft</t>
+  </si>
+  <si>
+    <t>$STATE@DiagonalStraightBottomRight</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>PossibleValues</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Suppressed</t>
+  </si>
+  <si>
+    <t>Unsuppressed</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Bottom Left</t>
+  </si>
+  <si>
+    <t>Bottom Right</t>
+  </si>
+  <si>
+    <t>$STATE@BoundingRatioBoxes</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Corner</t>
-  </si>
-  <si>
-    <t>Conflict</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>$STATE@DiagonalStraightBottomLeft</t>
-  </si>
-  <si>
-    <t>$STATE@DiagonalStraightBottomRight</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>PossibleValues</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Suppressed</t>
-  </si>
-  <si>
-    <t>Unsuppressed</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Bottom Left</t>
-  </si>
-  <si>
-    <t>Bottom Right</t>
-  </si>
-  <si>
-    <t>$STATE@BoundingRatioBoxes</t>
-  </si>
-  <si>
-    <t>endplate_1</t>
-  </si>
-  <si>
-    <t>endplate_2</t>
-  </si>
-  <si>
-    <t>endplate_3</t>
-  </si>
-  <si>
-    <t>endplate_4</t>
-  </si>
-  <si>
-    <t>endplate_5</t>
-  </si>
-  <si>
-    <t>endplate_notch</t>
+    <t>Left Ratio</t>
+  </si>
+  <si>
+    <t>Right Ratio</t>
+  </si>
+  <si>
+    <t>Top Ratio</t>
+  </si>
+  <si>
+    <t>Bottom Ratio</t>
+  </si>
+  <si>
+    <t>notch_depth@Notch</t>
+  </si>
+  <si>
+    <t>$State@Notch</t>
+  </si>
+  <si>
+    <t>Notch</t>
+  </si>
+  <si>
+    <t>Endplate_1</t>
+  </si>
+  <si>
+    <t>Endplate_2</t>
+  </si>
+  <si>
+    <t>Endplate_3</t>
+  </si>
+  <si>
+    <t>Endplate_4</t>
+  </si>
+  <si>
+    <t>Endplate_5</t>
+  </si>
+  <si>
+    <t>Endplate_6</t>
+  </si>
+  <si>
+    <t>Endplate_7</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -558,6 +573,9 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -763,10 +781,10 @@
   <autoFilter ref="G19:I21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Side"/>
-    <tableColumn id="2" name="Left">
+    <tableColumn id="2" name="Left Ratio">
       <calculatedColumnFormula>$C$20/(SUM($C$20:$E$20))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Right">
+    <tableColumn id="3" name="Right Ratio">
       <calculatedColumnFormula>$E$20/(SUM($C$20:$E$20))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -790,8 +808,8 @@
   <autoFilter ref="G27:I29"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Side"/>
-    <tableColumn id="2" name="Top"/>
-    <tableColumn id="3" name="Bottom"/>
+    <tableColumn id="2" name="Top Ratio"/>
+    <tableColumn id="3" name="Bottom Ratio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1120,15 +1138,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="106" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
     <col min="2" max="3" width="5.7265625" style="27" customWidth="1"/>
     <col min="4" max="4" width="5.7265625" style="29" customWidth="1"/>
     <col min="5" max="5" width="5.7265625" style="33" customWidth="1"/>
@@ -1140,21 +1158,23 @@
     <col min="14" max="15" width="5.7265625" style="2" customWidth="1"/>
     <col min="16" max="17" width="5.7265625" style="15" customWidth="1"/>
     <col min="18" max="19" width="5.7265625" style="2" customWidth="1"/>
-    <col min="20" max="23" width="3.7265625" style="11" customWidth="1"/>
-    <col min="24" max="27" width="3.7265625" style="9" customWidth="1"/>
-    <col min="28" max="31" width="5.7265625" style="7" customWidth="1"/>
-    <col min="32" max="35" width="5.7265625" style="9" customWidth="1"/>
-    <col min="36" max="36" width="5.7265625" style="7" customWidth="1"/>
-    <col min="37" max="39" width="3.7265625" style="7" customWidth="1"/>
-    <col min="40" max="40" width="6.7265625" customWidth="1"/>
+    <col min="20" max="20" width="4.08984375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.453125" style="2" customWidth="1"/>
+    <col min="22" max="25" width="3.7265625" style="11" customWidth="1"/>
+    <col min="26" max="29" width="3.7265625" style="9" customWidth="1"/>
+    <col min="30" max="33" width="5.7265625" style="7" customWidth="1"/>
+    <col min="34" max="37" width="5.7265625" style="9" customWidth="1"/>
+    <col min="38" max="38" width="5.7265625" style="7" customWidth="1"/>
+    <col min="39" max="41" width="3.7265625" style="7" customWidth="1"/>
+    <col min="42" max="42" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" ht="197.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" s="5" customFormat="1" ht="197.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="28" t="s">
         <v>2</v>
@@ -1210,77 +1230,83 @@
       <c r="S2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="Z2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="AC2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AL2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH2" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="27">
         <f>Default!C5</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="27">
         <f>Default!C6</f>
@@ -1288,1800 +1314,1333 @@
       </c>
       <c r="D3" s="29">
         <f>Default!C12</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="33">
         <f>Default!D12</f>
-        <v>16.661000000000001</v>
+        <v>10</v>
       </c>
       <c r="F3" s="31">
         <f>Default!C13</f>
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="G3" s="33">
         <f>Default!D13</f>
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
       <c r="H3" s="33">
         <f>Default!D15</f>
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="I3" s="31">
         <f>Default!C15</f>
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="J3" s="31">
-        <f>Default!C15</f>
-        <v>27.290290946736999</v>
+        <f>Default!C14</f>
+        <v>25</v>
       </c>
       <c r="K3" s="33">
         <f>Default!D15</f>
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="L3" s="13">
         <f>Default!H28</f>
-        <v>27.245351548017865</v>
+        <v>14.303560281786277</v>
       </c>
       <c r="M3" s="13">
         <f>Default!I28</f>
-        <v>20.434013661013399</v>
+        <v>2.8607120563572552</v>
       </c>
       <c r="N3" s="2">
         <f>Default!H20</f>
-        <v>42.91142868812814</v>
+        <v>52.533471472957125</v>
       </c>
       <c r="O3" s="2">
         <f>Default!I20</f>
-        <v>6.13020409830402</v>
+        <v>1.7511157157652375</v>
       </c>
       <c r="P3" s="15">
         <f>Default!H29</f>
-        <v>19.620056874150791</v>
+        <v>7.5203427817856516</v>
       </c>
       <c r="Q3" s="15">
         <f>Default!I29</f>
-        <v>26.160075832201056</v>
+        <v>7.5203427817856516</v>
       </c>
       <c r="R3" s="2">
-        <f>Default!I28</f>
-        <v>20.434013661013399</v>
+        <f>Default!H21</f>
+        <v>16.666666666666664</v>
       </c>
       <c r="S3" s="2">
-        <f>Default!I29</f>
-        <v>26.160075832201056</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>76</v>
+        <f>Default!I21</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="T3" s="2">
+        <f>3*N3/4</f>
+        <v>39.400103604717842</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X3" s="26" t="str">
+        <v>72</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="26" t="str">
         <f>Default!I36</f>
         <v>S</v>
       </c>
-      <c r="Y3" s="26" t="str">
+      <c r="AA3" s="26" t="str">
         <f>Default!J36</f>
         <v>U</v>
       </c>
-      <c r="Z3" s="26" t="str">
+      <c r="AB3" s="26" t="str">
         <f>Default!K36</f>
+        <v>U</v>
+      </c>
+      <c r="AC3" s="26" t="str">
+        <f>Default!L36</f>
+        <v>U</v>
+      </c>
+      <c r="AD3" s="7" t="str">
+        <f>Default!I37</f>
         <v>S</v>
       </c>
-      <c r="AA3" s="26" t="str">
-        <f>Default!L36</f>
-        <v>S</v>
-      </c>
-      <c r="AB3" s="7" t="str">
-        <f>Default!I37</f>
-        <v>U</v>
-      </c>
-      <c r="AC3" s="7" t="str">
+      <c r="AE3" s="7" t="str">
         <f>Default!J37</f>
         <v>S</v>
       </c>
-      <c r="AD3" s="7" t="str">
+      <c r="AF3" s="7" t="str">
         <f>Default!K37</f>
-        <v>U</v>
-      </c>
-      <c r="AE3" s="7" t="str">
+        <v>S</v>
+      </c>
+      <c r="AG3" s="7" t="str">
         <f>Default!L37</f>
         <v>S</v>
       </c>
-      <c r="AF3" s="9" t="str">
+      <c r="AH3" s="9" t="str">
         <f>Default!I38</f>
-        <v>S</v>
-      </c>
-      <c r="AG3" s="9" t="str">
+        <v>U</v>
+      </c>
+      <c r="AI3" s="9" t="str">
         <f>Default!J38</f>
         <v>S</v>
       </c>
-      <c r="AH3" s="9" t="str">
+      <c r="AJ3" s="9" t="str">
         <f>Default!K38</f>
         <v>S</v>
       </c>
-      <c r="AI3" s="9" t="str">
+      <c r="AK3" s="9" t="str">
         <f>Default!L38</f>
-        <v>U</v>
-      </c>
-      <c r="AJ3" s="7" t="str">
+        <v>S</v>
+      </c>
+      <c r="AL3" s="7" t="str">
         <f>Default!I39</f>
         <v>S</v>
       </c>
-      <c r="AK3" s="7" t="str">
+      <c r="AM3" s="7" t="str">
         <f>Default!J39</f>
         <v>S</v>
       </c>
-      <c r="AL3" s="7" t="str">
+      <c r="AN3" s="7" t="str">
         <f>Default!K39</f>
         <v>S</v>
       </c>
-      <c r="AM3" s="7" t="str">
+      <c r="AO3" s="7" t="str">
         <f>Default!L39</f>
         <v>S</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AP3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>26</v>
+      </c>
+      <c r="E4" s="33">
+        <v>10</v>
+      </c>
+      <c r="F4" s="31">
+        <v>30</v>
+      </c>
+      <c r="G4" s="33">
+        <v>12</v>
+      </c>
+      <c r="H4" s="33">
+        <v>10</v>
+      </c>
+      <c r="I4" s="31">
+        <v>25</v>
+      </c>
+      <c r="J4" s="31">
+        <v>30</v>
+      </c>
+      <c r="K4" s="33">
+        <v>10</v>
+      </c>
+      <c r="L4" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="M4" s="13">
+        <v>7.4167556561349599</v>
+      </c>
+      <c r="N4" s="2">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10.188309618997746</v>
+      </c>
+      <c r="P4" s="15">
+        <v>3.7601713908928263</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>7.5203427817856525</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="S4" s="2">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="T4" s="2">
+        <f>3*N4/4</f>
+        <v>26.25</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="29">
+        <v>26</v>
+      </c>
+      <c r="E5" s="33">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31">
+        <v>30</v>
+      </c>
+      <c r="G5" s="33">
+        <v>12</v>
+      </c>
+      <c r="H5" s="33">
+        <v>10</v>
+      </c>
+      <c r="I5" s="31">
+        <v>25</v>
+      </c>
+      <c r="J5" s="31">
+        <v>30</v>
+      </c>
+      <c r="K5" s="33">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13">
+        <v>10</v>
+      </c>
+      <c r="M5" s="13">
+        <v>6.798692684790379</v>
+      </c>
+      <c r="N5" s="2">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5.0941548094988729</v>
+      </c>
+      <c r="P5" s="15">
+        <v>3.7601713908928263</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>15.040685563571305</v>
+      </c>
+      <c r="R5" s="2">
+        <v>25</v>
+      </c>
+      <c r="S5" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="T5" s="2">
+        <v>11.461848321372463</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>26</v>
+      </c>
+      <c r="E6" s="33">
+        <v>10</v>
+      </c>
+      <c r="F6" s="31">
+        <v>30</v>
+      </c>
+      <c r="G6" s="33">
+        <v>12</v>
+      </c>
+      <c r="H6" s="33">
+        <v>10</v>
+      </c>
+      <c r="I6" s="31">
+        <v>25</v>
+      </c>
+      <c r="J6" s="31">
+        <v>30</v>
+      </c>
+      <c r="K6" s="33">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13">
+        <v>8.1584312217484563</v>
+      </c>
+      <c r="M6" s="13">
+        <v>8.1584312217484563</v>
+      </c>
+      <c r="N6" s="2">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28.017851452243804</v>
+      </c>
+      <c r="P6" s="15">
+        <v>3.7601713908928263</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>15.040685563571305</v>
+      </c>
+      <c r="R6" s="2">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="29">
-        <v>26.763999999999999</v>
-      </c>
-      <c r="E4" s="33">
-        <v>16.661000000000001</v>
-      </c>
-      <c r="F4" s="31">
-        <v>31.961639757568001</v>
-      </c>
-      <c r="G4" s="33">
-        <v>23.1122562152533</v>
-      </c>
-      <c r="H4" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="I4" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="J4" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="K4" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="L4" s="13">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="M4" s="13">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="N4" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="O4" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="P4" s="15">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="R4" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="S4" s="2">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="27">
-        <v>5</v>
-      </c>
-      <c r="C5" s="27">
-        <v>5</v>
-      </c>
-      <c r="D5" s="29">
-        <v>26.763999999999999</v>
-      </c>
-      <c r="E5" s="33">
-        <v>16.661000000000001</v>
-      </c>
-      <c r="F5" s="31">
-        <v>31.961639757568001</v>
-      </c>
-      <c r="G5" s="33">
-        <v>23.1122562152533</v>
-      </c>
-      <c r="H5" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="I5" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="J5" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="K5" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="L5" s="13">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="M5" s="13">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="N5" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="O5" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="P5" s="15">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="R5" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="S5" s="2">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="27">
-        <v>5</v>
-      </c>
-      <c r="C6" s="27">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29">
-        <v>26.763999999999999</v>
-      </c>
-      <c r="E6" s="33">
-        <v>16.661000000000001</v>
-      </c>
-      <c r="F6" s="31">
-        <v>31.961639757568001</v>
-      </c>
-      <c r="G6" s="33">
-        <v>23.1122562152533</v>
-      </c>
-      <c r="H6" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="I6" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="J6" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="K6" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="L6" s="13">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="M6" s="13">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="N6" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="O6" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="P6" s="15">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="R6" s="2">
-        <v>23.631570313258479</v>
-      </c>
-      <c r="S6" s="2">
-        <v>21.256254133659954</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>76</v>
+      <c r="T6" s="2">
+        <v>10.506694294591425</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="Z6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="AD6" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK6" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK6" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="AL6" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="AN6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B7" s="27">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>26</v>
+      </c>
+      <c r="E7" s="33">
         <v>10</v>
       </c>
-      <c r="C7" s="27">
-        <v>5</v>
-      </c>
-      <c r="D7" s="29">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="E7" s="33">
-        <v>16.661000000000001</v>
-      </c>
       <c r="F7" s="31">
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="G7" s="33">
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
       <c r="H7" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="I7" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="J7" s="31">
-        <v>27.290290946736999</v>
+        <v>30</v>
       </c>
       <c r="K7" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="L7" s="13">
-        <v>27.245351548017865</v>
+        <v>12.747548783981962</v>
       </c>
       <c r="M7" s="13">
-        <v>20.434013661013399</v>
+        <v>5.0990195135927845</v>
       </c>
       <c r="N7" s="2">
-        <v>42.91142868812814</v>
+        <v>18.6785676348292</v>
       </c>
       <c r="O7" s="2">
-        <v>6.13020409830402</v>
+        <v>18.6785676348292</v>
       </c>
       <c r="P7" s="15">
-        <v>19.620056874150791</v>
+        <v>4.512205669071391</v>
       </c>
       <c r="Q7" s="15">
-        <v>26.160075832201059</v>
+        <v>4.512205669071391</v>
       </c>
       <c r="R7" s="2">
-        <v>20.434013661013399</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="S7" s="2">
-        <v>26.160075832201059</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>76</v>
+        <v>16.5</v>
+      </c>
+      <c r="T7" s="2">
+        <v>14.008925726121902</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="Z7" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AA7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="AD7" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AF7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="AH7" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK7" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="AL7" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AM7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="AN7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B8" s="27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
       <c r="D8" s="29">
-        <v>28.999999999999996</v>
+        <v>26</v>
       </c>
       <c r="E8" s="33">
-        <v>16.661000000000001</v>
+        <v>10</v>
       </c>
       <c r="F8" s="31">
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="G8" s="33">
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
       <c r="H8" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="I8" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="J8" s="31">
-        <v>27.290290946736999</v>
+        <v>30</v>
       </c>
       <c r="K8" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="L8" s="13">
-        <v>27.245351548017865</v>
+        <v>17.735720047279251</v>
       </c>
       <c r="M8" s="13">
-        <v>20.434013661013399</v>
+        <v>1.7735720047279251</v>
       </c>
       <c r="N8" s="2">
-        <v>42.91142868812814</v>
+        <v>50.941548094988718</v>
       </c>
       <c r="O8" s="2">
-        <v>6.13020409830402</v>
+        <v>2.5470774047494364</v>
       </c>
       <c r="P8" s="15">
-        <v>19.620056874150791</v>
+        <v>1.8800856954464131</v>
       </c>
       <c r="Q8" s="15">
-        <v>26.160075832201059</v>
+        <v>1.8800856954464131</v>
       </c>
       <c r="R8" s="2">
-        <v>20.434013661013399</v>
+        <v>2.5</v>
       </c>
       <c r="S8" s="2">
-        <v>26.160075832201059</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>76</v>
+        <v>2.5</v>
+      </c>
+      <c r="T8" s="2">
+        <v>38.206161071241546</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="AD8" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG8" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK8" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK8" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="AL8" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AM8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="AN8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B9" s="27">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="29">
-        <v>28.999999999999996</v>
+        <v>26</v>
       </c>
       <c r="E9" s="33">
-        <v>16.661000000000001</v>
+        <v>10</v>
       </c>
       <c r="F9" s="31">
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="G9" s="33">
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
       <c r="H9" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="I9" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="J9" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="K9" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="L9" s="13">
-        <v>27.245351548017865</v>
+        <v>12.515615246562991</v>
       </c>
       <c r="M9" s="13">
-        <v>20.434013661013399</v>
+        <v>5.0062460986251969</v>
       </c>
       <c r="N9" s="2">
-        <v>42.91142868812814</v>
+        <v>46.696419087073004</v>
       </c>
       <c r="O9" s="2">
-        <v>6.13020409830402</v>
+        <v>4.6696419087073</v>
       </c>
       <c r="P9" s="15">
-        <v>19.620056874150791</v>
+        <v>1.8800856954464131</v>
       </c>
       <c r="Q9" s="15">
-        <v>26.160075832201059</v>
+        <v>1.8800856954464131</v>
       </c>
       <c r="R9" s="2">
-        <v>20.434013661013399</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="S9" s="2">
-        <v>26.160075832201059</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>76</v>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="T9" s="2">
+        <v>35.022314315304754</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="AD9" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK9" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="AL9" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AM9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="AN9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B10" s="27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
+        <v>26</v>
+      </c>
+      <c r="E10" s="33">
         <v>10</v>
       </c>
-      <c r="D10" s="29">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="E10" s="33">
-        <v>16.661000000000001</v>
-      </c>
       <c r="F10" s="31">
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="G10" s="33">
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
       <c r="H10" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="I10" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="J10" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="K10" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="L10" s="13">
-        <v>27.245351548017865</v>
+        <v>14.05262062771985</v>
       </c>
       <c r="M10" s="13">
-        <v>20.434013661013399</v>
+        <v>5.2697327353949435</v>
       </c>
       <c r="N10" s="2">
-        <v>42.91142868812814</v>
+        <v>46.696419087073004</v>
       </c>
       <c r="O10" s="2">
-        <v>6.13020409830402</v>
+        <v>4.6696419087073</v>
       </c>
       <c r="P10" s="15">
-        <v>19.620056874150791</v>
+        <v>1.8800856954464131</v>
       </c>
       <c r="Q10" s="15">
-        <v>26.160075832201059</v>
+        <v>1.8800856954464131</v>
       </c>
       <c r="R10" s="2">
-        <v>20.434013661013399</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="S10" s="2">
-        <v>26.160075832201059</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>76</v>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="T10" s="2">
+        <v>35.022314315304754</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="AD10" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AE10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF10" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG10" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AF10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK10" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="AL10" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="AN10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B11" s="27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" s="27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="29">
-        <v>28.999999999999996</v>
+        <v>26</v>
       </c>
       <c r="E11" s="33">
-        <v>16.661000000000001</v>
+        <v>10</v>
       </c>
       <c r="F11" s="31">
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="G11" s="33">
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
       <c r="H11" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="I11" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="J11" s="31">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="K11" s="33">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="L11" s="13">
-        <v>27.245351548017865</v>
+        <v>14.303560281786275</v>
       </c>
       <c r="M11" s="13">
-        <v>20.434013661013399</v>
+        <v>2.8607120563572552</v>
       </c>
       <c r="N11" s="2">
-        <v>42.91142868812814</v>
+        <v>52.533471472957125</v>
       </c>
       <c r="O11" s="2">
-        <v>6.13020409830402</v>
+        <v>1.7511157157652377</v>
       </c>
       <c r="P11" s="15">
-        <v>19.620056874150791</v>
+        <v>7.5203427817856525</v>
       </c>
       <c r="Q11" s="15">
-        <v>26.160075832201059</v>
+        <v>7.5203427817856525</v>
       </c>
       <c r="R11" s="2">
-        <v>20.434013661013399</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="S11" s="2">
-        <v>26.160075832201059</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U11" s="17" t="s">
-        <v>76</v>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="T11" s="2">
+        <v>39.400103604717842</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB11" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="AD11" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK11" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="AL11" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AM11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="27">
-        <v>7.5</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="29">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="E12" s="33">
-        <v>16.661000000000001</v>
-      </c>
-      <c r="F12" s="31">
-        <v>31.961639757568001</v>
-      </c>
-      <c r="G12" s="33">
-        <v>23.1122562152533</v>
-      </c>
-      <c r="H12" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="I12" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="J12" s="31">
-        <v>27.290290946736999</v>
-      </c>
-      <c r="K12" s="33">
-        <v>17.8176571752177</v>
-      </c>
-      <c r="L12" s="13">
-        <v>27.245351548017865</v>
-      </c>
-      <c r="M12" s="13">
-        <v>20.434013661013399</v>
-      </c>
-      <c r="N12" s="2">
-        <v>42.91142868812814</v>
-      </c>
-      <c r="O12" s="2">
-        <v>6.13020409830402</v>
-      </c>
-      <c r="P12" s="15">
-        <v>19.620056874150791</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>26.160075832201059</v>
-      </c>
-      <c r="R12" s="2">
-        <v>20.434013661013399</v>
-      </c>
-      <c r="S12" s="2">
-        <v>26.160075832201059</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AN11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="1"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="369" yWindow="876" count="261">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B3:B6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C3:C6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D3:D6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E3:E6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F3:F6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G3:G6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H3:H6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I3:I6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J3:J6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K3:K6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L3:L6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M3:M6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N3:N6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O3:O6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P3:P6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q3:Q6"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="R3:R6 X3:AM3"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S3:S6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T4:AM6">
+  <dataValidations xWindow="369" yWindow="876" count="48">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B3:B12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C3:C12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D3:D12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E3:E12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F3:F12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G3:G12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H3:H12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I3:I12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J3:J12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K3:K12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L3:L12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M3:M12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N3:N12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O3:O12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P3:P12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q3:Q12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="Z3:AO3 R3:R12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S3:T12 U12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V4:AO6 AF7:AF12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V3 V7:V12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W3 W7:W12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="X3 X7:X12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Y3 Y7:Y12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AP3:AP12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Z7:Z12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopRigh" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AA7:AA12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomL" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AB7:AB12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="R7"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomR" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AC7:AC12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AD7:AD12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AE7:AE12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AG7:AG12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="X7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AH7:AH12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopRigh" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Y7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AI7:AI12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomL" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Z7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AJ7:AJ12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomR" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AA7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AK7:AK12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AB7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AL7:AL12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AC7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AM7:AM12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AD7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomLef" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN7:AN12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AE7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomRig" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AO7:AO12">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AF7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U3">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AG7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U4">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AH7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U5">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AI7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U6">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AJ7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U7">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AK7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U8">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomLef" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AL7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U9">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomRig" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AM7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U10">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN7">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@VerticalAngle" prompt="Enter a valid value for this parameter." sqref="B12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Angle@HorizontalAngle" prompt="Enter a valid value for this parameter." sqref="C12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="D12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="E12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="F12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@TopRightDiagonal" prompt="Enter a valid value for this parameter." sqref="G12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="H12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomRightDiagonal" prompt="Enter a valid value for this parameter." sqref="I12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Horizontal@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="J12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Vertical@BottomLeftDiagonal" prompt="Enter a valid value for this parameter." sqref="K12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioLeft" prompt="Enter a valid value for this parameter." sqref="L12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioLeft" prompt="Enter a valid value for this parameter." sqref="M12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioTop" prompt="Enter a valid value for this parameter." sqref="N12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioTop" prompt="Enter a valid value for this parameter." sqref="O12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Top@RatioRight" prompt="Enter a valid value for this parameter." sqref="P12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Bottom@RatioRight" prompt="Enter a valid value for this parameter." sqref="Q12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="R8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="R9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="R10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="R11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Left@RatioBottom" prompt="Enter a valid value for this parameter." sqref="R12"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S9"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S10"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S11"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="Right@RatioBottom" prompt="Enter a valid value for this parameter." sqref="S12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorBottom" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="T12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="V12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightConnectorTop" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="W12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="X8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="X9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="X10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="X11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="X12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopRigh" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Y8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopRigh" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Y9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopRigh" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Y10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopRigh" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Y11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerTopRigh" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Y12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomL" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Z8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomL" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Z9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomL" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Z10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomL" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Z11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomL" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="Z12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomR" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AA8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomR" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AA9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomR" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AA10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomR" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AA11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@StraightEdgeCornerBottomR" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AA12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AB8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AB9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AB10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AB11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AB12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AC8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AC9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AC10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AC11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AC12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AD8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AD9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AD10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AD11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AD12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AE8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AE9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AE10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AE11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConcaveEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AE12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AF8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AF9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AF10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AF11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AF12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AG8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AG9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AG10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AG11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AG12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AH8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AH9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AH10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AH11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AH12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AI8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AI9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AI10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AI11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@ConvexEllipseBottomRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AI12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AJ8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AJ9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AJ10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AJ11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopLeft" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AJ12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AK8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AK9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AK10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AK11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightTopRight" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AK12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomLef" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AL8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomLef" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AL9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomLef" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AL10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomLef" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AL11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomLef" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AL12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomRig" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AM8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomRig" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AM9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomRig" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AM10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomRig" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AM11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@DiagonalStraightBottomRig" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AM12">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN8">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN9">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN10">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN11">
-      <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$STATE@BoundingRatioBoxes" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="AN12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SOLIDWORKS Error:" error="The value you have entered is invalid.  Please enter a valid value before continuing." promptTitle="$State@Notch" prompt="Select to suppress or unsuppress the feature_x000a_Possible Options:_x000a_Suppressed_x000a_Unsuppressed_x000a_S = Suppressed_x000a_U = Unsuppressed_x000a_1 = Suppressed_x000a_0 = Unsuppressed" sqref="U11">
       <formula1>"SUPPRESSED,UNSUPPRESSED,S,U,1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AH2" r:id="rId1"/>
-    <hyperlink ref="AI2" r:id="rId2"/>
-    <hyperlink ref="AE2" r:id="rId3"/>
-    <hyperlink ref="AD2" r:id="rId4"/>
+    <hyperlink ref="AJ2" r:id="rId1"/>
+    <hyperlink ref="AK2" r:id="rId2"/>
+    <hyperlink ref="AG2" r:id="rId3"/>
+    <hyperlink ref="AF2" r:id="rId4"/>
+    <hyperlink ref="U2" r:id="rId5"/>
+    <hyperlink ref="T2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId5"/>
-  <ignoredErrors>
-    <ignoredError sqref="R3" formula="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L52"/>
+  <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3093,7 +2652,7 @@
     <col min="6" max="6" width="12.453125" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
     <col min="10" max="10" width="12.1796875" customWidth="1"/>
     <col min="11" max="11" width="13.81640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
@@ -3117,7 +2676,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -3170,28 +2729,28 @@
         <v>32</v>
       </c>
       <c r="C12" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>16.661000000000001</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
       </c>
       <c r="H12">
         <f>SQRT(($K$12-$K$13)^2+($L$12-$L$13)^2)</f>
-        <v>61.3020409830402</v>
+        <v>56.0357029044876</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
       </c>
       <c r="K12">
         <f>-Table2[[#This Row],[Horizontal]]</f>
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="L12">
         <f>Table2[[#This Row],[Vertical]]</f>
-        <v>16.661000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -3199,28 +2758,28 @@
         <v>33</v>
       </c>
       <c r="C13" s="2">
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
       </c>
       <c r="H13">
         <f>SQRT(($K$14-$K$15)^2+($L$14-$L$15)^2)</f>
-        <v>52.320151664402111</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
         <v>33</v>
       </c>
       <c r="K13">
         <f>Table2[[#This Row],[Horizontal]]</f>
-        <v>31.961639757568001</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <f>Table2[[#This Row],[Vertical]]</f>
-        <v>23.1122562152533</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -3228,28 +2787,28 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>24.984326698743299</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
       </c>
       <c r="H14">
         <f>SQRT(($K$12-$K$14)^2+($L$12-$L$14)^2)</f>
-        <v>36.88027322380389</v>
+        <v>20.024984394500787</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
       </c>
       <c r="K14">
         <f>-Table2[[#This Row],[Horizontal]]</f>
-        <v>-24.984326698743299</v>
+        <v>-25</v>
       </c>
       <c r="L14">
         <f>-Table2[[#This Row],[Vertical]]</f>
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -3257,28 +2816,28 @@
         <v>35</v>
       </c>
       <c r="C15" s="2">
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
-        <v>17.8176571752177</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
       </c>
       <c r="H15">
         <f>SQRT(($K$13-$K$15)^2+($L$13-$L$15)^2)</f>
-        <v>41.195622459964234</v>
+        <v>22.561028345356956</v>
       </c>
       <c r="J15" t="s">
         <v>35</v>
       </c>
       <c r="K15">
         <f>Table2[[#This Row],[Horizontal]]</f>
-        <v>27.290290946736999</v>
+        <v>25</v>
       </c>
       <c r="L15">
         <f>-Table2[[#This Row],[Vertical]]</f>
-        <v>-17.8176571752177</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.6">
@@ -3303,10 +2862,10 @@
         <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -3314,10 +2873,10 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3327,11 +2886,11 @@
       </c>
       <c r="H20">
         <f>($C$20/(SUM($C$20:$E$20)))*$H$12</f>
-        <v>42.91142868812814</v>
+        <v>52.533471472957125</v>
       </c>
       <c r="I20">
         <f>($E$20/(SUM($C$20:$E$20)))*$H$12</f>
-        <v>6.13020409830402</v>
+        <v>1.7511157157652375</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
@@ -3342,26 +2901,26 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
       </c>
       <c r="H21">
         <f>($C$21/(SUM($C$21:$E$21)))*$H$13</f>
-        <v>11.626700369867136</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="I21">
         <f>($E$21/(SUM($C$21:$E$21)))*$H$13</f>
-        <v>17.440050554800703</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="b">
         <f>COUNTIF(C20:C21,"&lt;=0")&gt;0</f>
@@ -3398,10 +2957,10 @@
         <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -3409,24 +2968,24 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
       </c>
       <c r="H28">
-        <f>($C$28/(SUM($C$28:$E$28)))*$H$12</f>
-        <v>27.245351548017865</v>
+        <f>($C$28/(SUM($C$28:$E$28)))*$H$14</f>
+        <v>14.303560281786277</v>
       </c>
       <c r="I28">
-        <f>($E$28/(SUM($C$28:$E$28)))*$H$12</f>
-        <v>20.434013661013399</v>
+        <f>($E$28/(SUM($C$28:$E$28)))*$H$14</f>
+        <v>2.8607120563572552</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3434,30 +2993,30 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
       </c>
       <c r="H29">
-        <f>($C$29/(SUM($C$29:$E$29)))*$H$13</f>
-        <v>19.620056874150791</v>
+        <f>($C$29/(SUM($C$29:$E$29)))*$H$15</f>
+        <v>7.5203427817856516</v>
       </c>
       <c r="I29">
-        <f>($E$29/(SUM($C$29:$E$29)))*$H$13</f>
-        <v>26.160075832201056</v>
+        <f>($E$29/(SUM($C$29:$E$29)))*$H$15</f>
+        <v>7.5203427817856516</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" s="6" t="b">
         <f>COUNTIF(C28:C29,"&lt;=0")&gt;0</f>
@@ -3474,13 +3033,13 @@
     </row>
     <row r="33" spans="2:12" ht="26" x14ac:dyDescent="0.6">
       <c r="B33" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
@@ -3489,13 +3048,13 @@
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
         <v>32</v>
@@ -3512,22 +3071,22 @@
     </row>
     <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I36" t="str">
         <f>IF(C36="Y",$I$42,$J$42)</f>
@@ -3539,35 +3098,35 @@
       </c>
       <c r="K36" t="str">
         <f>IF(E36="Y",$I$42,$J$42)</f>
-        <v>S</v>
+        <v>U</v>
       </c>
       <c r="L36" t="str">
         <f>IF(F36="Y",$I$42,$J$42)</f>
-        <v>S</v>
+        <v>U</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" ref="I37:K39" si="2">IF(C37="Y",$I$42,$J$42)</f>
-        <v>U</v>
+        <v>S</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="2"/>
@@ -3575,7 +3134,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
-        <v>U</v>
+        <v>S</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" ref="L37:L39" si="3">IF(F37="Y",$I$42,$J$42)</f>
@@ -3584,26 +3143,26 @@
     </row>
     <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>U</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="2"/>
@@ -3615,7 +3174,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" si="3"/>
-        <v>U</v>
+        <v>S</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -3623,16 +3182,16 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s">
         <v>27</v>
@@ -3657,7 +3216,7 @@
     <row r="40" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C41" s="6" t="b">
         <f>COUNTIF(C36:C39, "Y")&gt;1</f>
@@ -3678,36 +3237,36 @@
     </row>
     <row r="42" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H42" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H43" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3715,11 +3274,6 @@
     <row r="46" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C36:F39">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
